--- a/data/outputs/management/32.xlsx
+++ b/data/outputs/management/32.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ10"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>5989581</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1114,6 +1124,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,7 +1219,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Wang, Cynthia/0000-0003-3880-8753; </t>
+          <t>Wang, Cynthia/0000-0003-3880-8753;</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
@@ -1321,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1516,6 +1528,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1719,6 +1732,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4453047</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1922,6 +1940,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>6332707</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2121,6 +2144,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>6129101</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2352,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4711247</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2523,6 +2556,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4885709</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
